--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO3_FED22-2회차\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\[2021.09.02_웹퍼블리셔과정_박석호강사]\TOMCO3\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -133,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +152,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -315,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,12 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,6 +371,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -659,7 +677,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,13 +689,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -697,87 +715,87 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="22">
         <v>44693</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="16">
         <v>44701</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>44711</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <v>44726</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>44734</v>
       </c>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>프로그래밍 언어 응용</t>
   </si>
@@ -65,31 +65,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실기시험일정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴 최종본제출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴 설계도+구현소스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGV응용 설계도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGV응용 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>실기제출일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실기시험일정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴 최종본제출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포폴 설계도+구현소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGV응용 설계도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGV응용 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -276,19 +280,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -321,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,11 +334,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,7 +346,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -370,13 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,7 +370,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +674,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -684,22 +684,25 @@
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="5" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -710,45 +713,54 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="22">
         <v>44693</v>
       </c>
+      <c r="F3" s="19">
+        <v>44708</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="16">
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="23">
         <v>44701</v>
       </c>
+      <c r="F4" s="15">
+        <v>44708</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -758,14 +770,17 @@
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="24">
         <v>44711</v>
       </c>
+      <c r="F5" s="7">
+        <v>44711</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -776,32 +791,38 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="7">
+        <v>14</v>
+      </c>
+      <c r="E6" s="24">
         <v>44726</v>
       </c>
+      <c r="F6" s="7">
+        <v>44726</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="25">
+        <v>44734</v>
+      </c>
+      <c r="F7" s="11">
         <v>44734</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -77,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포폴 설계도+구현소스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGV응용 설계도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CGV응용 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +86,14 @@
   </si>
   <si>
     <t>실기제출일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴 설계도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴 JS구현소스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,22 +373,22 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -677,7 +677,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,14 +691,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -714,10 +714,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -733,7 +733,7 @@
       <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="20">
         <v>44693</v>
       </c>
       <c r="F3" s="19">
@@ -751,9 +751,9 @@
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="23">
+        <v>17</v>
+      </c>
+      <c r="E4" s="21">
         <v>44701</v>
       </c>
       <c r="F4" s="15">
@@ -771,9 +771,9 @@
         <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="24">
+        <v>14</v>
+      </c>
+      <c r="E5" s="22">
         <v>44711</v>
       </c>
       <c r="F5" s="7">
@@ -791,9 +791,9 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="24">
+        <v>18</v>
+      </c>
+      <c r="E6" s="22">
         <v>44726</v>
       </c>
       <c r="F6" s="7">
@@ -813,7 +813,7 @@
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <v>44734</v>
       </c>
       <c r="F7" s="11">

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -312,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,16 +361,7 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,7 +668,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -691,14 +682,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -721,22 +712,22 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="17">
         <v>44693</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="15">
         <v>44708</v>
       </c>
     </row>
@@ -747,13 +738,13 @@
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="17">
         <v>44701</v>
       </c>
       <c r="F4" s="15">
@@ -761,22 +752,22 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <v>44711</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="15">
         <v>44711</v>
       </c>
     </row>
@@ -793,7 +784,7 @@
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="19">
         <v>44726</v>
       </c>
       <c r="F6" s="7">
@@ -813,7 +804,7 @@
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>44734</v>
       </c>
       <c r="F7" s="11">

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -768,7 +768,7 @@
         <v>44711</v>
       </c>
       <c r="F5" s="15">
-        <v>44711</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CGV응용 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>평가일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -93,7 +89,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>포폴 JS구현소스</t>
+    <t>포폴 HTML,CSS 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포폴 JS구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +668,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -705,10 +705,10 @@
         <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -742,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="17">
         <v>44701</v>
@@ -762,7 +762,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="18">
         <v>44711</v>

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -668,7 +668,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -788,7 +788,7 @@
         <v>44726</v>
       </c>
       <c r="F6" s="7">
-        <v>44726</v>
+        <v>44729</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -808,7 +808,7 @@
         <v>44734</v>
       </c>
       <c r="F7" s="11">
-        <v>44734</v>
+        <v>44733</v>
       </c>
     </row>
   </sheetData>

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -137,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,12 +156,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -312,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,12 +355,6 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,6 +368,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,7 +671,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -682,14 +685,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -712,42 +715,42 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="24">
         <v>44693</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="25">
         <v>44708</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="24">
         <v>44701</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="25">
         <v>44708</v>
       </c>
     </row>
@@ -764,7 +767,7 @@
       <c r="D5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <v>44711</v>
       </c>
       <c r="F5" s="15">
@@ -784,7 +787,7 @@
       <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>44726</v>
       </c>
       <c r="F6" s="7">
@@ -804,7 +807,7 @@
       <c r="D7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>44734</v>
       </c>
       <c r="F7" s="11">

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -306,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,18 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,16 +346,7 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,6 +362,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,7 +656,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -715,102 +700,102 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="17">
         <v>44693</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="18">
         <v>44708</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="17">
         <v>44701</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="18">
         <v>44708</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>44711</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="18">
         <v>44722</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="12">
         <v>44726</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="11">
         <v>44729</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="13">
         <v>44734</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>44733</v>
       </c>
     </row>

--- a/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -306,7 +306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -319,36 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -368,6 +338,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +641,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,14 +655,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -700,102 +685,102 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="7">
         <v>44693</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="8">
         <v>44708</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="7">
         <v>44701</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="8">
         <v>44708</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="7">
         <v>44711</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="8">
         <v>44722</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="7">
         <v>44726</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>44729</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>44734</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="15">
         <v>44733</v>
       </c>
     </row>
